--- a/LSB/ROXAS, ZHANINE R..xlsx
+++ b/LSB/ROXAS, ZHANINE R..xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1051,7 +1051,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1094,7 +1094,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1158,7 +1158,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1218,7 +1218,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1284,7 +1284,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1347,7 +1347,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1445,7 +1445,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1504,7 +1504,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1569,7 +1569,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1612,7 +1612,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1687,7 +1687,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1873,7 +1873,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1939,7 +1939,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1997,7 +1997,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2063,7 +2063,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2119,7 +2119,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2194,7 +2194,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2237,7 +2237,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2303,7 +2303,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2359,7 +2359,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2457,7 +2457,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2520,7 +2520,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2967,9 +2967,9 @@
   <dimension ref="A2:K130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A7" activePane="bottomLeft"/>
+      <pane ySplit="3570" topLeftCell="A4" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3239,8 +3239,12 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
-      <c r="B14" s="21"/>
+      <c r="A14" s="42">
+        <v>45082</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>44</v>
+      </c>
       <c r="C14" s="14"/>
       <c r="D14" s="41"/>
       <c r="E14" s="10"/>
@@ -3251,8 +3255,12 @@
       </c>
       <c r="H14" s="41"/>
       <c r="I14" s="10"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="21"/>
+      <c r="J14" s="12">
+        <v>1</v>
+      </c>
+      <c r="K14" s="51">
+        <v>45075</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="42"/>
